--- a/customer data.xlsx
+++ b/customer data.xlsx
@@ -81,24 +81,24 @@
     <t>Very Good</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Unfair</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
     <t>Confusing</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Unfair</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
     <t>Unreliable</t>
   </si>
   <si>
@@ -120,6 +120,9 @@
     <t>C006</t>
   </si>
   <si>
+    <t>Very Bad</t>
+  </si>
+  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
   </si>
   <si>
     <t>C012</t>
-  </si>
-  <si>
-    <t>Very Bad</t>
   </si>
   <si>
     <t>Sarah</t>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -221,37 +221,27 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Aptos Narrow&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,25 +250,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -506,7 +488,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -535,646 +517,648 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="3"/>
+    </row>
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
